--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/chrisathe_athe.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/chrisathe_athe.xlsx
@@ -36,7 +36,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
   </si>
   <si>
     <t>arg439197</t>
@@ -45,13 +45,13 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
   </si>
   <si>
     <t>arg488149</t>
   </si>
   <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>arg231494</t>
@@ -60,13 +60,13 @@
     <t>arg230365</t>
   </si>
   <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
   </si>
   <si>
     <t>arg229388</t>
   </si>
   <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
   </si>
   <si>
     <t>arg229398</t>
@@ -75,25 +75,25 @@
     <t>arg244579</t>
   </si>
   <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
   </si>
   <si>
     <t>arg270902</t>
   </si>
   <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
   </si>
   <si>
     <t>arg328210</t>
   </si>
   <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
   </si>
   <si>
     <t>arg240623</t>
   </si>
   <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
   </si>
   <si>
     <t>arg250846</t>
@@ -102,13 +102,13 @@
     <t>arg246334</t>
   </si>
   <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
   </si>
   <si>
     <t>arg231497</t>
   </si>
   <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
   </si>
   <si>
     <t>arg230146</t>
@@ -117,13 +117,13 @@
     <t>arg613494</t>
   </si>
   <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>arg231485</t>
   </si>
   <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg575745</t>
@@ -132,22 +132,22 @@
     <t>arg231491</t>
   </si>
   <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
   </si>
   <si>
     <t>arg229697</t>
   </si>
   <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
   </si>
   <si>
     <t>arg231620</t>
@@ -156,961 +156,961 @@
     <t>arg229265</t>
   </si>
   <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
   </si>
   <si>
     <t>arg488146</t>
   </si>
   <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
   </si>
   <si>
     <t>arg237637</t>
   </si>
   <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
   </si>
   <si>
     <t>arg254062</t>
   </si>
   <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
   </si>
   <si>
     <t>arg250867</t>
   </si>
   <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
   </si>
   <si>
     <t>arg244514</t>
   </si>
   <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
   </si>
   <si>
     <t>arg231487</t>
   </si>
   <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg229484</t>
   </si>
   <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
   </si>
   <si>
     <t>arg253486</t>
   </si>
   <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg488148</t>
   </si>
   <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>438,0.2,19.02,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.03,0.0,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
-  </si>
-  <si>
-    <t>129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,129,1.0,24.04,0.0,0.0,1.0,0.0,1.0,0.0,0.15,0.1,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,0.0,9.53,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
-  </si>
-  <si>
-    <t>122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06</t>
-  </si>
-  <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,13.94,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0,122,0.0,11.24,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,71,0.5,12.59,0.0,0.0,0.5,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>198,0.0,10.55,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.05,0.07,0.06,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,61,0.0,9.06,1.0,0.23,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,378,0.33,13.84,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.14,0.06</t>
-  </si>
-  <si>
-    <t>281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06,194,0.0,14.47,0.0,0.07,2.0,0.0,0.03,0.0,0.05,0.2,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0</t>
-  </si>
-  <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,467,0.43,13.3,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.03,0.06</t>
-  </si>
-  <si>
-    <t>204,0.0,10.15,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
-  </si>
-  <si>
-    <t>93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,115,0.67,10.77,0.0,0.05,1.67,0.0,0.05,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.33,12.35,0.0,0.0,0.67,0.0,0.0,0.0,0.0,0.05,0.05,0.03,0.0,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06,245,0.0,15.88,0.0,0.0,1.0,0.0,0.1,0.0,0.2,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>207,0.5,11.67,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.03,0.06,121,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>598,0.25,16.55,0.0,0.01,1.0,0.0,0.03,0.0,0.3,0.35,0.35,0.21,0.35,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>69,0.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,339,0.0,14.6,0.0,0.04,3.33,0.0,0.0,0.0,0.05,0.05,0.1,0.03,0.06</t>
-  </si>
-  <si>
-    <t>248,0.25,14.54,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.03,0.0,51,0.0,6.23,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>136,0.0,14.6,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.03,0.06,405,0.0,12.71,0.0,0.01,1.29,0.0,0.01,0.0,0.35,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>120,1.0,13.59,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,460,0.5,13.94,0.0,0.02,1.0,0.0,0.84,0.0,0.25,0.2,0.2,0.07,0.0</t>
-  </si>
-  <si>
-    <t>144,0.5,15.63,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,281,0.0,27.54,0.0,0.03,0.0,0.0,0.0,0.0,0.15,0.2,0.2,0.03,0.06</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,93,0.0,16.16,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,183,0.0,12.78,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.03,0.0</t>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0,13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>13.4,6.54,1.76,1.89,0.93,0.2,19.02,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.15,0.15,0.06,0.06,0.04,0.07,0.24,0.0,0.0,1.87,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,18.0,7.17,0.47,0.38,1.25,1.0,24.04,0.0,0.0,1.0,0,0,0.0,1.0,0.0,0.39,0.06,0.06,0.0,0.0,0.0,0.11,0.05,0.06,0.06,2.14</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>8.0,5.31,0.42,0.76,0.55,0.0,9.53,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.67,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
+  </si>
+  <si>
+    <t>25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93</t>
+  </si>
+  <si>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64,16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
+  </si>
+  <si>
+    <t>8.0,5.81,0.42,0.76,0.55,0.0,13.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.31,0.25,0.06,0.06,0.06,0.06,0.05,0.0,0.0,3.57,25.0,4.88,0.66,0.38,1.73,0.0,11.24,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.12,0.04,0.04,0.0,0.0,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,6.0,5.92,0.31,0.76,0.42,0.5,12.59,0.0,0.0,0.5,0,0,0.0,0.0,10.0,0.42,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0,13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88</t>
+  </si>
+  <si>
+    <t>7.6,5.21,1.0,1.89,0.53,0.0,10.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.32,0.0,0.0,0.13,0.05,0.05,0.06,0.06,1.93,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,13.0,4.69,0.34,0.38,0.9,0.0,9.06,1.0,0.23,0.0,0,0,0.0,0.0,0.0,0.23,0.15,0.08,0.08,0.08,0.08,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,23.33,5.4,1.83,1.13,1.62,0.33,13.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.09,0.21,0.06,0.06,0.1,0.03,0.1,0.06,0.06,1.84</t>
+  </si>
+  <si>
+    <t>35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65,10.0,6.47,0.79,1.13,0.69,0.0,14.47,0.0,0.07,2.0,0,0,0.0,0.03,0.0,0.13,0.2,0.3,0.13,0.13,0.1,0.0,0.0,0.06,0.06,2.89</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46</t>
+  </si>
+  <si>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64,11.86,5.63,2.17,2.65,0.82,0.43,13.3,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.14,0.07,0.07,0.11,0.02,0.05,0.06,0.06,2.0</t>
+  </si>
+  <si>
+    <t>20.5,4.98,1.07,0.76,1.42,0.0,10.15,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.12,0.05,0.22,0.0,0.0,0.1,0.0,0.0,0.0,0.0,2.64,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14,8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,7.0,5.48,0.55,1.13,0.49,0.67,10.77,0.0,0.05,1.67,0,0,0.0,0.05,0.0,0.29,0.0,0.24,0.1,0.1,0.1,0.0,0.0,0.0,0.0,0.63</t>
+  </si>
+  <si>
+    <t>8.0,5.83,0.63,1.13,0.55,0.33,12.35,0.0,0.0,0.67,0,0,0.0,0.0,30.0,0.29,0.04,0.21,0.0,0.0,0.13,0.0,0.0,0.0,0.0,0.89,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92,13.67,5.98,1.07,1.13,0.95,0.0,15.88,0.0,0.0,1.0,0,0,0.0,0.1,0.0,0.24,0.02,0.17,0.17,0.17,0.02,0.02,0.0,0.06,0.06,2.55</t>
+  </si>
+  <si>
+    <t>9.5,5.45,1.0,1.51,0.66,0.5,11.67,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.08,0.21,0.08,0.08,0.11,0.03,0.05,0.06,0.06,4.57,20.0,6.05,0.52,0.38,1.39,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.25,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.17</t>
+  </si>
+  <si>
+    <t>12.25,6.1,2.57,3.02,0.85,0.25,16.55,0.0,0.01,1.0,0,0,0.0,0.03,0.0,0.19,0.08,0.18,0.03,0.03,0.08,0.01,0.0,0.35,0.35,2.28,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88</t>
+  </si>
+  <si>
+    <t>13.0,5.31,0.34,0.38,0.9,0.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.08,0.15,0.0,0.0,0.15,0.0,0.0,0.0,0.0,6.0,9.0,12.56,0.71,1.13,0.62,0.0,14.6,0.0,0.04,3.33,4,0,0.0,0.0,0.0,0.37,0.15,0.15,0.15,0.15,0.0,0.0,0.0,0.06,0.06,0.92</t>
+  </si>
+  <si>
+    <t>10.75,5.77,1.13,1.51,0.75,0.25,14.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.16,0.14,0.14,0.09,0.0,0.0,0.0,0.0,2.46,12.0,4.25,0.31,0.38,0.83,0.0,6.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.08,0.08,0.0,0.0,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>11.5,5.91,0.6,0.76,0.8,0.0,14.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.17,0.17,0.0,0.0,0.04,0.0,0.0,0.06,0.06,1.88,10.57,5.47,1.94,2.65,0.73,0.0,12.71,0.0,0.01,1.29,0,0,0.0,0.01,0.0,0.27,0.09,0.22,0.01,0.01,0.08,0.03,0.0,0.0,0.0,1.64</t>
+  </si>
+  <si>
+    <t>23.0,5.22,0.6,0.38,1.59,1.0,13.59,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.13,0.04,0.22,0.0,0.0,0.13,0.04,0.05,0.0,0.0,1.67,21.5,5.35,2.25,1.51,1.49,0.5,13.94,0.0,0.02,1.0,0,0,0.0,0.84,0.0,0.17,0.01,0.06,0.01,0.01,0.01,0.01,0.0,0.0,0.0,2.5</t>
+  </si>
+  <si>
+    <t>11.5,6.26,0.6,0.76,0.8,0.5,15.63,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.0,0.17,0.09,0.09,0.0,0.09,0.05,0.0,0.0,3.88,35.0,8.03,0.92,0.38,2.43,0.0,27.54,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.54,0.17,0.11,0.0,0.0,0.0,0.14,0.24,0.06,0.06,1.65</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,16.0,5.81,0.42,0.38,1.11,0.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.25,0.06,0.19,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,36.0,5.08,0.94,0.38,2.5,0.0,12.78,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.25,0.11,0.11,0.08,0.03,0.0,0.0,0.0,2.42</t>
   </si>
   <si>
     <t xml:space="preserve">arg231497 </t>
   </si>
   <si>
-    <t>468,0.2,14.59,0.0,0.0,1.0,0.0,0.02,0.0,0.15,0.3,0.4,0.14,0.18,151,0.0,10.25,0.0,0.07,1.0,0.0,0.0,0.0,0.2,0.3,0.2,0.0,0.0</t>
+    <t>16.6,5.64,2.17,1.89,1.15,0.2,14.59,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.07,0.18,0.07,0.07,0.08,0.06,0.1,0.18,0.18,2.24,10.0,5.03,0.79,1.13,0.69,0.0,10.25,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.07,0.3,0.07,0.07,0.03,0.0,0.0,0.0,0.0,4.18</t>
   </si>
 </sst>
 </file>
